--- a/ONCHO/OEM/Sierra Leone/sr_oncho_oem_1_site_202211.xlsx
+++ b/ONCHO/OEM/Sierra Leone/sr_oncho_oem_1_site_202211.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\ONCHO\OEM\Sierra Leone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38B81EF-4658-4655-A307-82A893E91A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C179D25F-CA88-4994-BBA0-AC609F79DFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="111">
   <si>
     <t>type</t>
   </si>
@@ -134,15 +134,6 @@
     <t>community = ${c_cluster_name}</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>c_supervisor</t>
-  </si>
-  <si>
-    <t>Team Supervisor</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -152,18 +143,6 @@
     <t>Date of Survey</t>
   </si>
   <si>
-    <t>c_health_facility</t>
-  </si>
-  <si>
-    <t>Name of Nearest Health Facility</t>
-  </si>
-  <si>
-    <t>c_type_health_facility</t>
-  </si>
-  <si>
-    <t>Type of Health Facility</t>
-  </si>
-  <si>
     <t>geopoint</t>
   </si>
   <si>
@@ -176,87 +155,9 @@
     <t>Works best outside of any building</t>
   </si>
   <si>
-    <t>select_one level</t>
-  </si>
-  <si>
-    <t>c_admin_level</t>
-  </si>
-  <si>
-    <t>Type of administrative level</t>
-  </si>
-  <si>
-    <t>c_river</t>
-  </si>
-  <si>
-    <t>Name of the nearest river</t>
-  </si>
-  <si>
-    <t>c_distance_community</t>
-  </si>
-  <si>
-    <t>Approximate distance to community (KM)</t>
-  </si>
-  <si>
-    <t>c_population</t>
-  </si>
-  <si>
-    <t>Total Population of Community</t>
-  </si>
-  <si>
-    <t>c_hh_number</t>
-  </si>
-  <si>
-    <t>Estimated No of Households</t>
-  </si>
-  <si>
     <t>select_one yes_no</t>
   </si>
   <si>
-    <t>c_receiving_ivm</t>
-  </si>
-  <si>
-    <t>Community Receiving Ivermectin</t>
-  </si>
-  <si>
-    <t>c_lengh_period_ivm</t>
-  </si>
-  <si>
-    <t>Length of Period ivermectin taken</t>
-  </si>
-  <si>
-    <t>${c_receiving_ivm} = 'Yes'</t>
-  </si>
-  <si>
-    <t>select_one months</t>
-  </si>
-  <si>
-    <t>c_month_dist</t>
-  </si>
-  <si>
-    <t>Month of Last Distribution</t>
-  </si>
-  <si>
-    <t>c_year_dist</t>
-  </si>
-  <si>
-    <t>Year of Last Distribution</t>
-  </si>
-  <si>
-    <t>. &gt; 1970 and . &lt; 2022</t>
-  </si>
-  <si>
-    <t>Please enter a valid year</t>
-  </si>
-  <si>
-    <t>calculate</t>
-  </si>
-  <si>
-    <t>c_last_dist</t>
-  </si>
-  <si>
-    <t>Last Distribution</t>
-  </si>
-  <si>
     <t>concat(B19,' ',B20)</t>
   </si>
   <si>
@@ -459,13 +360,19 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>c_BlackFly</t>
+  </si>
+  <si>
+    <t>Can local leaders confirm the presence of biting black flies in or near the community?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -488,19 +395,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -648,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -684,27 +578,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,13 +870,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7"/>
@@ -1043,7 +933,7 @@
       <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1152,291 +1042,95 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="13" customFormat="1" ht="15.75" customHeight="1">
+    <row r="6" spans="1:13" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="D6" s="16"/>
       <c r="J6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
       <c r="J7" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1">
-      <c r="A8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="16" t="s">
+    <row r="8" spans="1:13">
+      <c r="A8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="H8" s="13"/>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
       <c r="J8" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="3" customFormat="1">
-      <c r="A9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="3" t="s">
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="H9" s="13"/>
-      <c r="J9" s="15" t="s">
-        <v>19</v>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B10" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="15" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" t="s">
-        <v>63</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7"/>
@@ -1449,68 +1143,68 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1">
       <c r="A2" s="7" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1">
       <c r="A3" s="7" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1">
       <c r="A4" s="7" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1">
       <c r="A5" s="7" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="D5" s="10"/>
     </row>
@@ -1522,25 +1216,25 @@
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1">
       <c r="A7" s="7" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1">
       <c r="A8" s="7" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="D8" s="10"/>
     </row>
@@ -1552,517 +1246,523 @@
     </row>
     <row r="10" spans="1:5" s="4" customFormat="1">
       <c r="A10" s="7" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:5" s="4" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:5" s="4" customFormat="1">
       <c r="A12" s="7" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:5" s="4" customFormat="1">
       <c r="A13" s="7" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:5" s="4" customFormat="1">
       <c r="A14" s="7" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1">
       <c r="A15" s="7" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:5" s="4" customFormat="1">
-      <c r="A16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>101</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" s="4" customFormat="1">
       <c r="A17" s="7" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" s="4" customFormat="1">
       <c r="A18" s="7" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" s="4" customFormat="1">
       <c r="A19" s="7" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" s="4" customFormat="1">
       <c r="A20" s="7" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" s="4" customFormat="1">
       <c r="A21" s="7" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" s="4" customFormat="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
+      <c r="A22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" s="4" customFormat="1">
-      <c r="A23" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>128</v>
-      </c>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" s="4" customFormat="1">
       <c r="A24" s="7" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D24" s="10"/>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
+    <row r="25" spans="1:4" s="4" customFormat="1">
+      <c r="A25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B26" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" t="s">
-        <v>118</v>
-      </c>
+      <c r="C25" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="10"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
         <v>85</v>
-      </c>
-      <c r="B27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
         <v>85</v>
-      </c>
-      <c r="B29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" t="s">
         <v>85</v>
-      </c>
-      <c r="B31" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" t="s">
         <v>85</v>
-      </c>
-      <c r="B32" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" t="s">
         <v>85</v>
-      </c>
-      <c r="B36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" t="s">
         <v>85</v>
       </c>
-      <c r="B37" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>107</v>
-      </c>
-      <c r="B39">
-        <v>101</v>
-      </c>
-      <c r="C39">
-        <v>101</v>
-      </c>
-      <c r="E39" t="s">
-        <v>120</v>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="B40">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C40">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E40" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="B41">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C41">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="B42">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C42">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E42" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="B43">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C43">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E43" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="B44">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C44">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="B45">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C45">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E45" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46">
         <v>107</v>
       </c>
-      <c r="B46">
-        <v>108</v>
-      </c>
       <c r="C46">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E46" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="B47">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C47">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E47" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="B48">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C48">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E48" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="B49">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C49">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E49" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50">
+        <v>111</v>
+      </c>
+      <c r="C50">
+        <v>111</v>
+      </c>
+      <c r="E50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51">
+        <v>112</v>
+      </c>
+      <c r="C51">
+        <v>112</v>
+      </c>
+      <c r="E51" t="s">
         <v>107</v>
       </c>
-      <c r="B50">
-        <v>112</v>
-      </c>
-      <c r="C50">
-        <v>112</v>
-      </c>
-      <c r="E50" t="s">
-        <v>140</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D32">
-    <sortCondition ref="B10:B32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D33">
+    <sortCondition ref="B10:B33"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2084,24 +1784,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2120,325 +1820,325 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.7"/>
   <cols>
-    <col min="1" max="1" width="4.94140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.94140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.83203125" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26" thickBot="1">
-      <c r="A1" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>117</v>
+      <c r="A1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="26" thickBot="1">
-      <c r="A2" s="24">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>120</v>
+      <c r="B2" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="E2">
         <v>101</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>122</v>
+      <c r="G2" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="26" thickBot="1">
-      <c r="A3" s="24">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>122</v>
+      <c r="B3" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="E3">
         <v>102</v>
       </c>
-      <c r="G3" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>139</v>
+      <c r="G3" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="26" thickBot="1">
-      <c r="A4" s="24">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>124</v>
+      <c r="B4" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="E4">
         <v>103</v>
       </c>
       <c r="G4"/>
-      <c r="I4" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>120</v>
+      <c r="I4" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="26" thickBot="1">
-      <c r="A5" s="24">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>136</v>
+      <c r="B5" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="E5">
         <v>104</v>
       </c>
       <c r="G5"/>
-      <c r="I5" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>130</v>
+      <c r="I5" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="26" thickBot="1">
-      <c r="A6" s="24">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>137</v>
+      <c r="B6" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="E6">
         <v>105</v>
       </c>
       <c r="G6"/>
-      <c r="I6" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>136</v>
+      <c r="I6" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="26" thickBot="1">
-      <c r="A7" s="24">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>138</v>
+      <c r="B7" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="E7">
         <v>106</v>
       </c>
       <c r="G7"/>
-      <c r="I7" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>138</v>
+      <c r="I7" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="26" thickBot="1">
-      <c r="A8" s="24">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>139</v>
+      <c r="B8" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="E8">
         <v>107</v>
       </c>
       <c r="G8"/>
-      <c r="I8" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>133</v>
+      <c r="I8" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="26" thickBot="1">
-      <c r="A9" s="24">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22" t="s">
-        <v>130</v>
+      <c r="B9" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="E9">
         <v>108</v>
       </c>
       <c r="G9"/>
-      <c r="I9" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>134</v>
+      <c r="I9" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="26" thickBot="1">
-      <c r="A10" s="24">
+      <c r="A10" s="22">
         <v>9</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>132</v>
+      <c r="B10" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="E10">
         <v>109</v>
       </c>
       <c r="G10"/>
-      <c r="I10" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>140</v>
+      <c r="I10" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="26" thickBot="1">
-      <c r="A11" s="24">
+      <c r="A11" s="22">
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22" t="s">
-        <v>133</v>
+      <c r="B11" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="E11">
         <v>110</v>
       </c>
       <c r="G11"/>
-      <c r="I11" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>137</v>
+      <c r="I11" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="26" thickBot="1">
-      <c r="A12" s="24">
+      <c r="A12" s="22">
         <v>11</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22" t="s">
-        <v>134</v>
+      <c r="B12" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="E12">
         <v>111</v>
       </c>
       <c r="G12"/>
-      <c r="I12" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>124</v>
+      <c r="I12" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="26" thickBot="1">
-      <c r="A13" s="24">
+      <c r="A13" s="22">
         <v>12</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>140</v>
+      <c r="B13" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="E13">
         <v>112</v>
       </c>
       <c r="G13"/>
-      <c r="I13" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>132</v>
+      <c r="I13" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/ONCHO/OEM/Sierra Leone/sr_oncho_oem_1_site_202211.xlsx
+++ b/ONCHO/OEM/Sierra Leone/sr_oncho_oem_1_site_202211.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\ONCHO\OEM\Sierra Leone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C179D25F-CA88-4994-BBA0-AC609F79DFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978C5722-CCB1-4B62-A981-1B1547CAE5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="113">
   <si>
     <t>type</t>
   </si>
@@ -366,6 +366,12 @@
   </si>
   <si>
     <t>Can local leaders confirm the presence of biting black flies in or near the community?</t>
+  </si>
+  <si>
+    <t>c_population</t>
+  </si>
+  <si>
+    <t>Total Population of Community</t>
   </si>
 </sst>
 </file>
@@ -870,13 +876,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7"/>
@@ -1075,46 +1081,60 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="23" t="s">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>109</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>110</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I9" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J9" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B12" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1128,7 +1148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD17"/>
     </sheetView>

--- a/ONCHO/OEM/Sierra Leone/sr_oncho_oem_1_site_202211.xlsx
+++ b/ONCHO/OEM/Sierra Leone/sr_oncho_oem_1_site_202211.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\ONCHO\OEM\Sierra Leone\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978C5722-CCB1-4B62-A981-1B1547CAE5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,22 +12,12 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="136">
   <si>
     <t>type</t>
   </si>
@@ -116,6 +100,18 @@
     <t>district_list = ${c_district}</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>c_cluster_name_other</t>
+  </si>
+  <si>
+    <t>Please enter the name of community</t>
+  </si>
+  <si>
+    <t>${c_cluster_name} = 'Other'</t>
+  </si>
+  <si>
     <t>select_one community_id</t>
   </si>
   <si>
@@ -131,9 +127,21 @@
     <t>Must be between 100 and 999 included</t>
   </si>
   <si>
+    <t>${c_cluster_name} != 'Other'</t>
+  </si>
+  <si>
     <t>community = ${c_cluster_name}</t>
   </si>
   <si>
+    <t>select_one community_replacement_id</t>
+  </si>
+  <si>
+    <t>c_cluster_id_other</t>
+  </si>
+  <si>
+    <t>Please select the initial code of the replaced community</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -155,9 +163,21 @@
     <t>Works best outside of any building</t>
   </si>
   <si>
+    <t>c_population</t>
+  </si>
+  <si>
+    <t>Total Population of Community</t>
+  </si>
+  <si>
     <t>select_one yes_no</t>
   </si>
   <si>
+    <t>c_BlackFly</t>
+  </si>
+  <si>
+    <t>Can local leaders confirm the presence of biting black flies in or near the community?</t>
+  </si>
+  <si>
     <t>concat(B19,' ',B20)</t>
   </si>
   <si>
@@ -257,9 +277,93 @@
     <t>December</t>
   </si>
   <si>
+    <t xml:space="preserve">BONTHE </t>
+  </si>
+  <si>
+    <t>WESTERN RURAL</t>
+  </si>
+  <si>
+    <t># 2 RIVER</t>
+  </si>
+  <si>
+    <t>BULLOM</t>
+  </si>
+  <si>
+    <t>China Compound</t>
+  </si>
+  <si>
+    <t>Gbap</t>
+  </si>
+  <si>
+    <t>John obay</t>
+  </si>
+  <si>
+    <t>MARCDONAL</t>
+  </si>
+  <si>
+    <t>Momaria</t>
+  </si>
+  <si>
+    <t>Senjehun</t>
+  </si>
+  <si>
+    <t>Tissana</t>
+  </si>
+  <si>
+    <t>TOMBO</t>
+  </si>
+  <si>
+    <t>Wales</t>
+  </si>
+  <si>
+    <t>Yargoi</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>community_id</t>
   </si>
   <si>
+    <t>community_replacement_id</t>
+  </si>
+  <si>
+    <t>101 (China Compound)</t>
+  </si>
+  <si>
+    <t>102 (# 2 RIVER)</t>
+  </si>
+  <si>
+    <t>103 (Wales)</t>
+  </si>
+  <si>
+    <t>104 (John obay)</t>
+  </si>
+  <si>
+    <t>105 (TOMBO)</t>
+  </si>
+  <si>
+    <t>106 (MARCDONAL)</t>
+  </si>
+  <si>
+    <t>107 (BULLOM)</t>
+  </si>
+  <si>
+    <t>108 (Gbap)</t>
+  </si>
+  <si>
+    <t>109 (Yargoi)</t>
+  </si>
+  <si>
+    <t>110 (Momaria)</t>
+  </si>
+  <si>
+    <t>111 (Senjehun)</t>
+  </si>
+  <si>
+    <t>112 (Tissana)</t>
+  </si>
+  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -269,15 +373,18 @@
     <t>default_language</t>
   </si>
   <si>
+    <t>allow_choice_duplicates</t>
+  </si>
+  <si>
+    <t>(Nov 2022) OEM - 1. Site Form V1</t>
+  </si>
+  <si>
+    <t>sr_oncho_oem_1_site_202211 V1</t>
+  </si>
+  <si>
     <t>English</t>
   </si>
   <si>
-    <t>sr_oncho_oem_1_site_202211</t>
-  </si>
-  <si>
-    <t>(Nov 2022) OEM - 1. Site Form</t>
-  </si>
-  <si>
     <t>N0</t>
   </si>
   <si>
@@ -290,27 +397,18 @@
     <t xml:space="preserve">SITES </t>
   </si>
   <si>
-    <t>WESTERN RURAL</t>
+    <t>ID</t>
   </si>
   <si>
     <t xml:space="preserve">Orogu River </t>
   </si>
   <si>
-    <t>China Compound</t>
-  </si>
-  <si>
     <t xml:space="preserve"># 2 community </t>
   </si>
   <si>
-    <t># 2 RIVER</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wales community </t>
   </si>
   <si>
-    <t>Wales</t>
-  </si>
-  <si>
     <t xml:space="preserve">John obay community </t>
   </si>
   <si>
@@ -320,65 +418,48 @@
     <t xml:space="preserve">Mcdonald community </t>
   </si>
   <si>
-    <t xml:space="preserve">BONTHE </t>
-  </si>
-  <si>
     <t>Nongoba bullom</t>
   </si>
   <si>
-    <t>Gbap</t>
-  </si>
-  <si>
     <t>benducha</t>
   </si>
   <si>
-    <t>Yargoi</t>
-  </si>
-  <si>
-    <t>Momaria</t>
-  </si>
-  <si>
-    <t>Senjehun</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jong </t>
-  </si>
-  <si>
-    <t>John obay</t>
-  </si>
-  <si>
-    <t>TOMBO</t>
-  </si>
-  <si>
-    <t>MARCDONAL</t>
-  </si>
-  <si>
-    <t>BULLOM</t>
-  </si>
-  <si>
-    <t>Tissana</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>c_BlackFly</t>
-  </si>
-  <si>
-    <t>Can local leaders confirm the presence of biting black flies in or near the community?</t>
-  </si>
-  <si>
-    <t>c_population</t>
-  </si>
-  <si>
-    <t>Total Population of Community</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -403,29 +484,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,8 +648,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -448,16 +844,53 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -479,103 +912,319 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color theme="0" tint="-0.149937437055574"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color theme="0" tint="-0.149937437055574"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color theme="0" tint="-0.149937437055574"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.149937437055574"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -584,35 +1233,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -870,737 +1552,800 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.609375" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="47.5" customWidth="1"/>
-    <col min="4" max="4" width="47.38671875" customWidth="1"/>
-    <col min="5" max="5" width="12.609375" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="20.38671875" customWidth="1"/>
-    <col min="9" max="9" width="12.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" customWidth="1"/>
-    <col min="11" max="11" width="35.38671875" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" customWidth="1"/>
-    <col min="13" max="13" width="36.609375" customWidth="1"/>
+    <col min="1" max="1" width="22.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="14.5037037037037" customWidth="1"/>
+    <col min="3" max="3" width="47.5037037037037" customWidth="1"/>
+    <col min="4" max="4" width="47.3851851851852" customWidth="1"/>
+    <col min="5" max="5" width="12.6074074074074" customWidth="1"/>
+    <col min="6" max="6" width="16.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="29.5037037037037" customWidth="1"/>
+    <col min="8" max="8" width="20.3851851851852" customWidth="1"/>
+    <col min="9" max="9" width="12.6074074074074" customWidth="1"/>
+    <col min="10" max="10" width="9.77777777777778" customWidth="1"/>
+    <col min="11" max="11" width="35.3851851851852" customWidth="1"/>
+    <col min="12" max="12" width="13.8888888888889" customWidth="1"/>
+    <col min="13" max="13" width="36.6074074074074" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="18">
-      <c r="A1" s="14" t="s">
+    <row r="1" s="9" customFormat="1" ht="18" spans="1:13">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="31.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="9" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-    </row>
-    <row r="3" spans="1:13" s="3" customFormat="1">
-      <c r="A3" s="3" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" s="9" customFormat="1" spans="1:13">
+      <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-    </row>
-    <row r="4" spans="1:13" s="3" customFormat="1">
-      <c r="A4" s="3" t="s">
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+    </row>
+    <row r="4" s="9" customFormat="1" spans="1:13">
+      <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="31.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="9" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="13" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="I5" s="20"/>
+      <c r="J5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+    </row>
+    <row r="6" s="9" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15" t="s">
+      <c r="B6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="3" customFormat="1">
-      <c r="A6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="16" t="s">
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" s="9" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="G7" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="J6" s="15" t="s">
+      <c r="H7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="15" t="s">
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" s="9" customFormat="1" spans="1:10">
+      <c r="A8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="J8" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J8" s="16" t="s">
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
-      <c r="I9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="15" t="s">
+    <row r="11" spans="1:10">
+      <c r="A11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>48</v>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD17"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.38671875" customWidth="1"/>
-    <col min="2" max="2" width="39.609375" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="39.6074074074074" customWidth="1"/>
+    <col min="3" max="3" width="23.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="14.8296296296296" customWidth="1"/>
+    <col min="5" max="5" width="15.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1">
-      <c r="A2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="4" customFormat="1">
-      <c r="A3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" s="4" customFormat="1">
-      <c r="A4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1">
-      <c r="A5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" s="4" customFormat="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" s="4" customFormat="1">
-      <c r="A7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1">
-      <c r="A8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1">
-      <c r="A10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1">
-      <c r="A11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="D1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="E1" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" s="10" customFormat="1" spans="1:4">
+      <c r="A2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" s="10" customFormat="1" spans="1:4">
+      <c r="A3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" s="10" customFormat="1" spans="1:4">
+      <c r="A4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" s="10" customFormat="1" spans="1:4">
+      <c r="A5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" s="10" customFormat="1" spans="1:4">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" s="10" customFormat="1" spans="1:4">
+      <c r="A7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" s="10" customFormat="1" spans="1:4">
+      <c r="A8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" s="10" customFormat="1" spans="1:4">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" s="10" customFormat="1" spans="1:4">
+      <c r="A10" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" s="10" customFormat="1" spans="1:4">
+      <c r="A11" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" s="10" customFormat="1" spans="1:4">
+      <c r="A12" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" s="10" customFormat="1" spans="1:4">
+      <c r="A13" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" s="10" customFormat="1" spans="1:4">
+      <c r="A14" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" s="10" customFormat="1" spans="1:4">
+      <c r="A15" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" s="10" customFormat="1" spans="1:4">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" s="10" customFormat="1" spans="1:4">
+      <c r="A17" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" s="10" customFormat="1" spans="1:4">
+      <c r="A18" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" s="10" customFormat="1" spans="1:4">
+      <c r="A19" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" s="10" customFormat="1" spans="1:4">
+      <c r="A20" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" s="10" customFormat="1" spans="1:4">
+      <c r="A21" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" s="10" customFormat="1" spans="1:4">
+      <c r="A22" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" s="10" customFormat="1" spans="1:4">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" s="10" customFormat="1" spans="1:4">
+      <c r="A24" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" s="4" customFormat="1">
-      <c r="A12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1">
-      <c r="A13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" s="4" customFormat="1">
-      <c r="A14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:5" s="4" customFormat="1">
-      <c r="A15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" s="4" customFormat="1">
-      <c r="A17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" s="4" customFormat="1">
-      <c r="A18" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" s="4" customFormat="1">
-      <c r="A19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" s="4" customFormat="1">
-      <c r="A20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" s="4" customFormat="1">
-      <c r="A21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" s="4" customFormat="1">
-      <c r="A22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4" s="4" customFormat="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:4" s="4" customFormat="1">
-      <c r="A24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" s="4" customFormat="1">
-      <c r="A25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="10"/>
+      <c r="B24" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" s="10" customFormat="1" spans="1:4">
+      <c r="A25" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="17"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
         <v>87</v>
-      </c>
-      <c r="C29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" t="s">
-        <v>101</v>
-      </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
         <v>99</v>
@@ -1609,563 +2354,771 @@
         <v>99</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40">
-        <v>101</v>
-      </c>
-      <c r="C40">
-        <v>101</v>
-      </c>
-      <c r="E40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41">
-        <v>102</v>
-      </c>
-      <c r="C41">
-        <v>102</v>
-      </c>
-      <c r="E41" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B42">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C42">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B43">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C43">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E43" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B44">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C44">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B45">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C45">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B46">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C46">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B47">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C47">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E47" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B48">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C48">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E48" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B49">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C49">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E49" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B50">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C50">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B51">
+        <v>110</v>
+      </c>
+      <c r="C51">
+        <v>110</v>
+      </c>
+      <c r="E51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52">
+        <v>111</v>
+      </c>
+      <c r="C52">
+        <v>111</v>
+      </c>
+      <c r="E52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53">
         <v>112</v>
       </c>
-      <c r="C51">
+      <c r="C53">
         <v>112</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55">
+        <v>101</v>
+      </c>
+      <c r="C55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56">
+        <v>102</v>
+      </c>
+      <c r="C56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57">
+        <v>103</v>
+      </c>
+      <c r="C57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58">
+        <v>104</v>
+      </c>
+      <c r="C58" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59">
+        <v>105</v>
+      </c>
+      <c r="C59" t="s">
         <v>107</v>
       </c>
+      <c r="D59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60">
+        <v>106</v>
+      </c>
+      <c r="C60" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61">
+        <v>107</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62">
+        <v>108</v>
+      </c>
+      <c r="C62" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63">
+        <v>109</v>
+      </c>
+      <c r="C63" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64">
+        <v>110</v>
+      </c>
+      <c r="C64" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65">
+        <v>111</v>
+      </c>
+      <c r="C65" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66">
+        <v>112</v>
+      </c>
+      <c r="C66" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D33">
+  <sortState ref="A10:D33">
     <sortCondition ref="B10:B33"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="46.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.0546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="15.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>80</v>
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.94140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.94074074074074" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5037037037037" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.162962962963" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.8296296296296" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5037037037037" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5037037037037" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.8296296296296" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26" thickBot="1">
-      <c r="A1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="26" thickBot="1">
-      <c r="A2" s="22">
+    <row r="1" ht="26.25" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" ht="26.25" spans="1:10">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="B2" s="4" t="s">
         <v>87</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="E2">
         <v>101</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="26" thickBot="1">
-      <c r="A3" s="22">
+      <c r="G2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" ht="26.25" spans="1:10">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>89</v>
       </c>
       <c r="E3">
         <v>102</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="26" thickBot="1">
-      <c r="A4" s="22">
+      <c r="G3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" ht="26.25" spans="1:10">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>91</v>
+      <c r="B4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="E4">
         <v>103</v>
       </c>
       <c r="G4"/>
-      <c r="I4" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="26" thickBot="1">
-      <c r="A5" s="22">
+      <c r="J4" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" ht="26.25" spans="1:10">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>103</v>
       </c>
       <c r="E5">
         <v>104</v>
       </c>
       <c r="G5"/>
-      <c r="I5" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" s="20" t="s">
+      <c r="I5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" ht="26.25" spans="1:10">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="26" thickBot="1">
-      <c r="A6" s="22">
-        <v>5</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>104</v>
       </c>
       <c r="E6">
         <v>105</v>
       </c>
       <c r="G6"/>
-      <c r="I6" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="26" thickBot="1">
-      <c r="A7" s="22">
+      <c r="I6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" ht="26.25" spans="1:10">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>105</v>
+      <c r="B7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="E7">
         <v>106</v>
       </c>
       <c r="G7"/>
-      <c r="I7" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="26" thickBot="1">
-      <c r="A8" s="22">
+      <c r="I7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" ht="26.25" spans="1:10">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>106</v>
+      <c r="B8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="E8">
         <v>107</v>
       </c>
       <c r="G8"/>
-      <c r="I8" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="26" thickBot="1">
-      <c r="A9" s="22">
+      <c r="I8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" ht="26.25" spans="1:10">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
-        <v>97</v>
+      <c r="B9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="E9">
         <v>108</v>
       </c>
       <c r="G9"/>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="26" thickBot="1">
-      <c r="A10" s="22">
+    </row>
+    <row r="10" ht="26.25" spans="1:10">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="B10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>99</v>
       </c>
       <c r="E10">
         <v>109</v>
       </c>
       <c r="G10"/>
-      <c r="I10" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="26" thickBot="1">
-      <c r="A11" s="22">
+      <c r="I10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" ht="26.25" spans="1:10">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20" t="s">
-        <v>100</v>
+      <c r="B11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="E11">
         <v>110</v>
       </c>
       <c r="G11"/>
-      <c r="I11" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="26" thickBot="1">
-      <c r="A12" s="22">
+      <c r="I11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" ht="26.25" spans="1:10">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20" t="s">
-        <v>101</v>
       </c>
       <c r="E12">
         <v>111</v>
       </c>
       <c r="G12"/>
-      <c r="I12" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="26" thickBot="1">
-      <c r="A13" s="22">
+      <c r="I12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" ht="26.25" spans="1:10">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>107</v>
+      <c r="B13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="E13">
         <v>112</v>
       </c>
       <c r="G13"/>
-      <c r="I13" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="20" t="s">
+      <c r="I13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I2:J13">
+  <sortState ref="I2:J13">
     <sortCondition ref="J2:J13"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ONCHO/OEM/Sierra Leone/sr_oncho_oem_1_site_202211.xlsx
+++ b/ONCHO/OEM/Sierra Leone/sr_oncho_oem_1_site_202211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="135">
   <si>
     <t>type</t>
   </si>
@@ -203,9 +203,6 @@
   </si>
   <si>
     <t>list_name</t>
-  </si>
-  <si>
-    <t>label</t>
   </si>
   <si>
     <t>district_list</t>
@@ -1561,7 +1558,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1894,7 +1891,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1914,62 +1911,62 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" s="10" customFormat="1" spans="1:4">
       <c r="A2" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" s="10" customFormat="1" spans="1:4">
       <c r="A3" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="17"/>
     </row>
     <row r="4" s="10" customFormat="1" spans="1:4">
       <c r="A4" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="17"/>
     </row>
     <row r="5" s="10" customFormat="1" spans="1:4">
       <c r="A5" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="17"/>
     </row>
@@ -1981,25 +1978,25 @@
     </row>
     <row r="7" s="10" customFormat="1" spans="1:4">
       <c r="A7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>71</v>
-      </c>
       <c r="C7" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="17"/>
     </row>
     <row r="8" s="10" customFormat="1" spans="1:4">
       <c r="A8" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="17"/>
     </row>
@@ -2011,73 +2008,73 @@
     </row>
     <row r="10" s="10" customFormat="1" spans="1:4">
       <c r="A10" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>74</v>
-      </c>
       <c r="C10" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="17"/>
     </row>
     <row r="11" s="10" customFormat="1" spans="1:4">
       <c r="A11" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="17"/>
     </row>
     <row r="12" s="10" customFormat="1" spans="1:4">
       <c r="A12" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="17"/>
     </row>
     <row r="13" s="10" customFormat="1" spans="1:4">
       <c r="A13" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="17"/>
     </row>
     <row r="14" s="10" customFormat="1" spans="1:4">
       <c r="A14" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="17"/>
     </row>
     <row r="15" s="10" customFormat="1" spans="1:4">
       <c r="A15" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="17"/>
     </row>
@@ -2089,73 +2086,73 @@
     </row>
     <row r="17" s="10" customFormat="1" spans="1:4">
       <c r="A17" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="17"/>
     </row>
     <row r="18" s="10" customFormat="1" spans="1:4">
       <c r="A18" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="17"/>
     </row>
     <row r="19" s="10" customFormat="1" spans="1:4">
       <c r="A19" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="17"/>
     </row>
     <row r="20" s="10" customFormat="1" spans="1:4">
       <c r="A20" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="17"/>
     </row>
     <row r="21" s="10" customFormat="1" spans="1:4">
       <c r="A21" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="17"/>
     </row>
     <row r="22" s="10" customFormat="1" spans="1:4">
       <c r="A22" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="17"/>
     </row>
@@ -2167,227 +2164,227 @@
     </row>
     <row r="24" s="10" customFormat="1" spans="1:4">
       <c r="A24" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="17"/>
     </row>
     <row r="25" s="10" customFormat="1" spans="1:4">
       <c r="A25" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" s="17"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B42">
         <v>101</v>
@@ -2396,12 +2393,12 @@
         <v>101</v>
       </c>
       <c r="E42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43">
         <v>102</v>
@@ -2410,12 +2407,12 @@
         <v>102</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B44">
         <v>103</v>
@@ -2424,12 +2421,12 @@
         <v>103</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B45">
         <v>104</v>
@@ -2438,12 +2435,12 @@
         <v>104</v>
       </c>
       <c r="E45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46">
         <v>105</v>
@@ -2452,12 +2449,12 @@
         <v>105</v>
       </c>
       <c r="E46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B47">
         <v>106</v>
@@ -2466,12 +2463,12 @@
         <v>106</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48">
         <v>107</v>
@@ -2480,12 +2477,12 @@
         <v>107</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B49">
         <v>108</v>
@@ -2494,12 +2491,12 @@
         <v>108</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B50">
         <v>109</v>
@@ -2508,12 +2505,12 @@
         <v>109</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B51">
         <v>110</v>
@@ -2522,12 +2519,12 @@
         <v>110</v>
       </c>
       <c r="E51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B52">
         <v>111</v>
@@ -2536,12 +2533,12 @@
         <v>111</v>
       </c>
       <c r="E52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B53">
         <v>112</v>
@@ -2550,175 +2547,175 @@
         <v>112</v>
       </c>
       <c r="E53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B55">
         <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B56">
         <v>102</v>
       </c>
       <c r="C56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B57">
         <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B58">
         <v>104</v>
       </c>
       <c r="C58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B59">
         <v>105</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B60">
         <v>106</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B61">
         <v>107</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B63">
         <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B64">
         <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B65">
         <v>111</v>
       </c>
       <c r="C65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B66">
         <v>112</v>
       </c>
       <c r="C66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2736,7 +2733,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2748,27 +2745,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
         <v>119</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>120</v>
-      </c>
-      <c r="C2" t="s">
-        <v>121</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -2803,28 +2800,28 @@
   <sheetData>
     <row r="1" ht="26.25" spans="1:10">
       <c r="A1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" ht="26.25" spans="1:10">
@@ -2832,25 +2829,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2">
         <v>101</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" ht="26.25" spans="1:10">
@@ -2858,25 +2855,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="E3">
         <v>102</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" ht="26.25" spans="1:10">
@@ -2884,23 +2881,23 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4">
         <v>103</v>
       </c>
       <c r="G4"/>
       <c r="I4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" ht="26.25" spans="1:10">
@@ -2908,23 +2905,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5">
         <v>104</v>
       </c>
       <c r="G5"/>
       <c r="I5" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" ht="26.25" spans="1:10">
@@ -2932,23 +2929,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6">
         <v>105</v>
       </c>
       <c r="G6"/>
       <c r="I6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="26.25" spans="1:10">
@@ -2956,23 +2953,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7">
         <v>106</v>
       </c>
       <c r="G7"/>
       <c r="I7" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" ht="26.25" spans="1:10">
@@ -2980,23 +2977,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8">
         <v>107</v>
       </c>
       <c r="G8"/>
       <c r="I8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" ht="26.25" spans="1:10">
@@ -3004,21 +3001,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9">
         <v>108</v>
       </c>
       <c r="G9"/>
       <c r="I9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" ht="26.25" spans="1:10">
@@ -3026,23 +3023,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10">
         <v>109</v>
       </c>
       <c r="G10"/>
       <c r="I10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" ht="26.25" spans="1:10">
@@ -3050,21 +3047,21 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11">
         <v>110</v>
       </c>
       <c r="G11"/>
       <c r="I11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" ht="26.25" spans="1:10">
@@ -3072,21 +3069,21 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12">
         <v>111</v>
       </c>
       <c r="G12"/>
       <c r="I12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" ht="26.25" spans="1:10">
@@ -3094,23 +3091,23 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13">
         <v>112</v>
       </c>
       <c r="G13"/>
       <c r="I13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/ONCHO/OEM/Sierra Leone/sr_oncho_oem_1_site_202211.xlsx
+++ b/ONCHO/OEM/Sierra Leone/sr_oncho_oem_1_site_202211.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="124">
   <si>
     <t>type</t>
   </si>
@@ -109,7 +109,12 @@
     <t>Please enter the name of community</t>
   </si>
   <si>
-    <t>${c_cluster_name} = 'Other'</t>
+    <t>${c_cluster_name} = 'T1 Spare 1' or
+${c_cluster_name} = 'T1 Spare 2' or
+${c_cluster_name} = 'T1 Spare 3' or
+${c_cluster_name} = 'T2 Spare 1' or
+${c_cluster_name} = 'T2 Spare 1' or
+${c_cluster_name} = 'T2 Spare 1'</t>
   </si>
   <si>
     <t>select_one community_id</t>
@@ -133,15 +138,6 @@
     <t>community = ${c_cluster_name}</t>
   </si>
   <si>
-    <t>select_one community_replacement_id</t>
-  </si>
-  <si>
-    <t>c_cluster_id_other</t>
-  </si>
-  <si>
-    <t>Please select the initial code of the replaced community</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -316,51 +312,27 @@
     <t>Yargoi</t>
   </si>
   <si>
-    <t>Other</t>
+    <t>T1 Spare 1</t>
+  </si>
+  <si>
+    <t>T1 Spare 2</t>
+  </si>
+  <si>
+    <t>T1 Spare 3</t>
+  </si>
+  <si>
+    <t>T2 Spare 1</t>
+  </si>
+  <si>
+    <t>T2 Spare 2</t>
+  </si>
+  <si>
+    <t>T2 Spare 3</t>
   </si>
   <si>
     <t>community_id</t>
   </si>
   <si>
-    <t>community_replacement_id</t>
-  </si>
-  <si>
-    <t>101 (China Compound)</t>
-  </si>
-  <si>
-    <t>102 (# 2 RIVER)</t>
-  </si>
-  <si>
-    <t>103 (Wales)</t>
-  </si>
-  <si>
-    <t>104 (John obay)</t>
-  </si>
-  <si>
-    <t>105 (TOMBO)</t>
-  </si>
-  <si>
-    <t>106 (MARCDONAL)</t>
-  </si>
-  <si>
-    <t>107 (BULLOM)</t>
-  </si>
-  <si>
-    <t>108 (Gbap)</t>
-  </si>
-  <si>
-    <t>109 (Yargoi)</t>
-  </si>
-  <si>
-    <t>110 (Momaria)</t>
-  </si>
-  <si>
-    <t>111 (Senjehun)</t>
-  </si>
-  <si>
-    <t>112 (Tissana)</t>
-  </si>
-  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -373,10 +345,10 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>(Nov 2022) OEM - 1. Site Form V1</t>
-  </si>
-  <si>
-    <t>sr_oncho_oem_1_site_202211 V1</t>
+    <t>(Nov 2022) OEM - 1. Site Form V1.2</t>
+  </si>
+  <si>
+    <t>sr_oncho_oem_1_site_202211 V1.2</t>
   </si>
   <si>
     <t>English</t>
@@ -1555,14 +1527,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1713,7 +1685,7 @@
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="20"/>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="22" t="s">
         <v>30</v>
       </c>
       <c r="I5" s="20"/>
@@ -1755,55 +1727,41 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="1" ht="28.5" spans="1:13">
+    <row r="7" s="9" customFormat="1" spans="1:10">
       <c r="A7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="20"/>
+      <c r="D7" s="21"/>
       <c r="J7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" s="9" customFormat="1" spans="1:10">
-      <c r="A8" s="9" t="s">
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
       <c r="J8" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
@@ -1811,16 +1769,13 @@
       <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="s">
+      <c r="J9" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>48</v>
@@ -1828,52 +1783,38 @@
       <c r="C10" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="6" t="s">
-        <v>50</v>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="21" t="s">
         <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>57</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1886,12 +1827,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1905,7 +1846,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -1914,59 +1855,59 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" s="10" customFormat="1" spans="1:4">
       <c r="A2" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" s="10" customFormat="1" spans="1:4">
       <c r="A3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>67</v>
-      </c>
       <c r="C3" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D3" s="17"/>
     </row>
     <row r="4" s="10" customFormat="1" spans="1:4">
       <c r="A4" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D4" s="17"/>
     </row>
     <row r="5" s="10" customFormat="1" spans="1:4">
       <c r="A5" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D5" s="17"/>
     </row>
@@ -1978,25 +1919,25 @@
     </row>
     <row r="7" s="10" customFormat="1" spans="1:4">
       <c r="A7" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D7" s="17"/>
     </row>
     <row r="8" s="10" customFormat="1" spans="1:4">
       <c r="A8" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D8" s="17"/>
     </row>
@@ -2008,73 +1949,73 @@
     </row>
     <row r="10" s="10" customFormat="1" spans="1:4">
       <c r="A10" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D10" s="17"/>
     </row>
     <row r="11" s="10" customFormat="1" spans="1:4">
       <c r="A11" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D11" s="17"/>
     </row>
     <row r="12" s="10" customFormat="1" spans="1:4">
       <c r="A12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>75</v>
-      </c>
       <c r="C12" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D12" s="17"/>
     </row>
     <row r="13" s="10" customFormat="1" spans="1:4">
       <c r="A13" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D13" s="17"/>
     </row>
     <row r="14" s="10" customFormat="1" spans="1:4">
       <c r="A14" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" s="17"/>
     </row>
     <row r="15" s="10" customFormat="1" spans="1:4">
       <c r="A15" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D15" s="17"/>
     </row>
@@ -2086,73 +2027,73 @@
     </row>
     <row r="17" s="10" customFormat="1" spans="1:4">
       <c r="A17" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D17" s="17"/>
     </row>
     <row r="18" s="10" customFormat="1" spans="1:4">
       <c r="A18" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D18" s="17"/>
     </row>
     <row r="19" s="10" customFormat="1" spans="1:4">
       <c r="A19" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D19" s="17"/>
     </row>
     <row r="20" s="10" customFormat="1" spans="1:4">
       <c r="A20" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D20" s="17"/>
     </row>
     <row r="21" s="10" customFormat="1" spans="1:4">
       <c r="A21" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D21" s="17"/>
     </row>
     <row r="22" s="10" customFormat="1" spans="1:4">
       <c r="A22" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D22" s="17"/>
     </row>
@@ -2164,558 +2105,535 @@
     </row>
     <row r="24" s="10" customFormat="1" spans="1:4">
       <c r="A24" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D24" s="17"/>
     </row>
     <row r="25" s="10" customFormat="1" spans="1:4">
       <c r="A25" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D25" s="17"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" t="s">
         <v>99</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>99</v>
       </c>
-      <c r="D40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
+      <c r="D42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
         <v>100</v>
       </c>
-      <c r="B42">
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
         <v>101</v>
       </c>
-      <c r="C42">
+      <c r="C44" t="s">
         <v>101</v>
       </c>
-      <c r="E42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43">
-        <v>102</v>
-      </c>
-      <c r="C43">
-        <v>102</v>
-      </c>
-      <c r="E43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>100</v>
-      </c>
-      <c r="B44">
-        <v>103</v>
-      </c>
-      <c r="C44">
-        <v>103</v>
-      </c>
-      <c r="E44" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45">
-        <v>104</v>
-      </c>
-      <c r="C45">
-        <v>104</v>
-      </c>
-      <c r="E45" t="s">
-        <v>91</v>
+      <c r="D44" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B46">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C46">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E46" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B47">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C47">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B48">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C48">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E48" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B49">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C49">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B50">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C50">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E50" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B51">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C51">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E51" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C52">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E52" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53">
+        <v>108</v>
+      </c>
+      <c r="C53">
+        <v>108</v>
+      </c>
+      <c r="E53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54">
+        <v>109</v>
+      </c>
+      <c r="C54">
+        <v>109</v>
+      </c>
+      <c r="E54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55">
+        <v>110</v>
+      </c>
+      <c r="C55">
+        <v>110</v>
+      </c>
+      <c r="E55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56">
+        <v>111</v>
+      </c>
+      <c r="C56">
+        <v>111</v>
+      </c>
+      <c r="E56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57">
+        <v>112</v>
+      </c>
+      <c r="C57">
+        <v>112</v>
+      </c>
+      <c r="E57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58">
+        <v>113</v>
+      </c>
+      <c r="C58">
+        <v>113</v>
+      </c>
+      <c r="E58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59">
+        <v>114</v>
+      </c>
+      <c r="C59">
+        <v>114</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60">
+        <v>115</v>
+      </c>
+      <c r="C60">
+        <v>115</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61">
+        <v>116</v>
+      </c>
+      <c r="C61">
+        <v>116</v>
+      </c>
+      <c r="D61"/>
+      <c r="E61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62">
+        <v>117</v>
+      </c>
+      <c r="C62">
+        <v>117</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62" t="s">
         <v>100</v>
       </c>
-      <c r="B53">
-        <v>112</v>
-      </c>
-      <c r="C53">
-        <v>112</v>
-      </c>
-      <c r="E53" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63">
+        <v>118</v>
+      </c>
+      <c r="C63">
+        <v>118</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63" t="s">
         <v>101</v>
-      </c>
-      <c r="B55">
-        <v>101</v>
-      </c>
-      <c r="C55" t="s">
-        <v>102</v>
-      </c>
-      <c r="D55" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>101</v>
-      </c>
-      <c r="B56">
-        <v>102</v>
-      </c>
-      <c r="C56" t="s">
-        <v>103</v>
-      </c>
-      <c r="D56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57">
-        <v>103</v>
-      </c>
-      <c r="C57" t="s">
-        <v>104</v>
-      </c>
-      <c r="D57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58">
-        <v>104</v>
-      </c>
-      <c r="C58" t="s">
-        <v>105</v>
-      </c>
-      <c r="D58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>101</v>
-      </c>
-      <c r="B59">
-        <v>105</v>
-      </c>
-      <c r="C59" t="s">
-        <v>106</v>
-      </c>
-      <c r="D59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>101</v>
-      </c>
-      <c r="B60">
-        <v>106</v>
-      </c>
-      <c r="C60" t="s">
-        <v>107</v>
-      </c>
-      <c r="D60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>101</v>
-      </c>
-      <c r="B61">
-        <v>107</v>
-      </c>
-      <c r="C61" t="s">
-        <v>108</v>
-      </c>
-      <c r="D61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>101</v>
-      </c>
-      <c r="B62">
-        <v>108</v>
-      </c>
-      <c r="C62" t="s">
-        <v>109</v>
-      </c>
-      <c r="D62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>101</v>
-      </c>
-      <c r="B63">
-        <v>109</v>
-      </c>
-      <c r="C63" t="s">
-        <v>110</v>
-      </c>
-      <c r="D63" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>101</v>
-      </c>
-      <c r="B64">
-        <v>110</v>
-      </c>
-      <c r="C64" t="s">
-        <v>111</v>
-      </c>
-      <c r="D64" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>101</v>
-      </c>
-      <c r="B65">
-        <v>111</v>
-      </c>
-      <c r="C65" t="s">
-        <v>112</v>
-      </c>
-      <c r="D65" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>101</v>
-      </c>
-      <c r="B66">
-        <v>112</v>
-      </c>
-      <c r="C66" t="s">
-        <v>113</v>
-      </c>
-      <c r="D66" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2733,7 +2651,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2745,27 +2663,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -2800,28 +2718,28 @@
   <sheetData>
     <row r="1" ht="26.25" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" ht="26.25" spans="1:10">
@@ -2829,25 +2747,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="E2">
         <v>101</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="26.25" spans="1:10">
@@ -2855,25 +2773,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E3">
         <v>102</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" ht="26.25" spans="1:10">
@@ -2881,23 +2799,23 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E4">
         <v>103</v>
       </c>
       <c r="G4"/>
       <c r="I4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" ht="26.25" spans="1:10">
@@ -2905,23 +2823,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E5">
         <v>104</v>
       </c>
       <c r="G5"/>
       <c r="I5" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" ht="26.25" spans="1:10">
@@ -2929,23 +2847,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E6">
         <v>105</v>
       </c>
       <c r="G6"/>
       <c r="I6" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" ht="26.25" spans="1:10">
@@ -2953,23 +2871,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E7">
         <v>106</v>
       </c>
       <c r="G7"/>
       <c r="I7" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" ht="26.25" spans="1:10">
@@ -2977,23 +2895,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="E8">
         <v>107</v>
       </c>
       <c r="G8"/>
       <c r="I8" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" ht="26.25" spans="1:10">
@@ -3001,21 +2919,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E9">
         <v>108</v>
       </c>
       <c r="G9"/>
       <c r="I9" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" ht="26.25" spans="1:10">
@@ -3023,23 +2941,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E10">
         <v>109</v>
       </c>
       <c r="G10"/>
       <c r="I10" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" ht="26.25" spans="1:10">
@@ -3047,21 +2965,21 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E11">
         <v>110</v>
       </c>
       <c r="G11"/>
       <c r="I11" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" ht="26.25" spans="1:10">
@@ -3069,21 +2987,21 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E12">
         <v>111</v>
       </c>
       <c r="G12"/>
       <c r="I12" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" ht="26.25" spans="1:10">
@@ -3091,23 +3009,23 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E13">
         <v>112</v>
       </c>
       <c r="G13"/>
       <c r="I13" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/ONCHO/OEM/Sierra Leone/sr_oncho_oem_1_site_202211.xlsx
+++ b/ONCHO/OEM/Sierra Leone/sr_oncho_oem_1_site_202211.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="130">
   <si>
     <t>type</t>
   </si>
@@ -112,9 +112,15 @@
     <t>${c_cluster_name} = 'T1 Spare 1' or
 ${c_cluster_name} = 'T1 Spare 2' or
 ${c_cluster_name} = 'T1 Spare 3' or
+${c_cluster_name} = 'T1 Spare 4' or
+${c_cluster_name} = 'T1 Spare 5' or
+${c_cluster_name} = 'T1 Spare 6' or
 ${c_cluster_name} = 'T2 Spare 1' or
-${c_cluster_name} = 'T2 Spare 1' or
-${c_cluster_name} = 'T2 Spare 1'</t>
+${c_cluster_name} = 'T2 Spare 2' or
+${c_cluster_name} = 'T2 Spare 3' or
+${c_cluster_name} = 'T2 Spare 4' or
+${c_cluster_name} = 'T2 Spare 5' or
+${c_cluster_name} = 'T2 Spare 6'</t>
   </si>
   <si>
     <t>select_one community_id</t>
@@ -321,6 +327,15 @@
     <t>T1 Spare 3</t>
   </si>
   <si>
+    <t>T1 Spare 4</t>
+  </si>
+  <si>
+    <t>T1 Spare 5</t>
+  </si>
+  <si>
+    <t>T1 Spare 6</t>
+  </si>
+  <si>
     <t>T2 Spare 1</t>
   </si>
   <si>
@@ -330,6 +345,15 @@
     <t>T2 Spare 3</t>
   </si>
   <si>
+    <t>T2 Spare 4</t>
+  </si>
+  <si>
+    <t>T2 Spare 5</t>
+  </si>
+  <si>
+    <t>T2 Spare 6</t>
+  </si>
+  <si>
     <t>community_id</t>
   </si>
   <si>
@@ -345,10 +369,10 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>(Nov 2022) OEM - 1. Site Form V1.2</t>
-  </si>
-  <si>
-    <t>sr_oncho_oem_1_site_202211 V1.2</t>
+    <t>(Nov 2022) OEM - 1. Site Form V1.3</t>
+  </si>
+  <si>
+    <t>sr_oncho_oem_1_site_202211_v_3</t>
   </si>
   <si>
     <t>English</t>
@@ -1529,12 +1553,12 @@
   <sheetPr/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="$A5:$XFD5"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1671,7 +1695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" ht="28.5" spans="1:13">
+    <row r="5" s="9" customFormat="1" ht="342" spans="1:13">
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
@@ -1685,7 +1709,7 @@
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="20"/>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="20" t="s">
         <v>30</v>
       </c>
       <c r="I5" s="20"/>
@@ -1827,12 +1851,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39:C44"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="$A52:$XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -2348,7 +2372,7 @@
         <v>99</v>
       </c>
       <c r="D42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2362,7 +2386,7 @@
         <v>100</v>
       </c>
       <c r="D43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2376,264 +2400,348 @@
         <v>101</v>
       </c>
       <c r="D44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>102</v>
-      </c>
-      <c r="B46">
-        <v>101</v>
-      </c>
-      <c r="C46">
-        <v>101</v>
-      </c>
-      <c r="E46" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>60</v>
+      </c>
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>102</v>
-      </c>
-      <c r="B47">
-        <v>102</v>
-      </c>
-      <c r="C47">
-        <v>102</v>
-      </c>
-      <c r="E47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48">
-        <v>103</v>
-      </c>
-      <c r="C48">
-        <v>103</v>
-      </c>
-      <c r="E48" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>60</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>102</v>
-      </c>
-      <c r="B49">
-        <v>104</v>
-      </c>
-      <c r="C49">
-        <v>104</v>
-      </c>
-      <c r="E49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50">
-        <v>105</v>
-      </c>
-      <c r="C50">
-        <v>105</v>
-      </c>
-      <c r="E50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>102</v>
-      </c>
-      <c r="B51">
-        <v>106</v>
-      </c>
-      <c r="C51">
-        <v>106</v>
-      </c>
-      <c r="E51" t="s">
-        <v>89</v>
+        <v>60</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B52">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C52">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53">
         <v>102</v>
       </c>
-      <c r="B53">
-        <v>108</v>
-      </c>
       <c r="C53">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E53" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B54">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C54">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B55">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C55">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B56">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C56">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E56" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B57">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C57">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E57" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B58">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C58">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E58" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B59">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C59">
-        <v>114</v>
-      </c>
-      <c r="D59"/>
+        <v>108</v>
+      </c>
       <c r="E59" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B60">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C60">
-        <v>115</v>
-      </c>
-      <c r="D60"/>
+        <v>109</v>
+      </c>
       <c r="E60" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B61">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C61">
-        <v>116</v>
-      </c>
-      <c r="D61"/>
+        <v>110</v>
+      </c>
       <c r="E61" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B62">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C62">
-        <v>117</v>
-      </c>
-      <c r="D62"/>
+        <v>111</v>
+      </c>
       <c r="E62" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63">
+        <v>112</v>
+      </c>
+      <c r="C63">
+        <v>112</v>
+      </c>
+      <c r="E63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64">
+        <v>113</v>
+      </c>
+      <c r="C64">
+        <v>113</v>
+      </c>
+      <c r="E64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>108</v>
+      </c>
+      <c r="B65">
+        <v>114</v>
+      </c>
+      <c r="C65">
+        <v>114</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66">
+        <v>115</v>
+      </c>
+      <c r="C66">
+        <v>115</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67">
+        <v>116</v>
+      </c>
+      <c r="C67">
+        <v>116</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67" t="s">
         <v>102</v>
       </c>
-      <c r="B63">
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68">
+        <v>117</v>
+      </c>
+      <c r="C68">
+        <v>117</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69">
         <v>118</v>
       </c>
-      <c r="C63">
+      <c r="C69">
         <v>118</v>
       </c>
-      <c r="D63"/>
-      <c r="E63" t="s">
-        <v>101</v>
+      <c r="D69"/>
+      <c r="E69" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2651,7 +2759,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2663,27 +2771,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -2718,28 +2826,28 @@
   <sheetData>
     <row r="1" ht="26.25" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" ht="26.25" spans="1:10">
@@ -2750,7 +2858,7 @@
         <v>83</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>86</v>
@@ -2776,7 +2884,7 @@
         <v>83</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>84</v>
@@ -2802,7 +2910,7 @@
         <v>83</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>94</v>
@@ -2826,7 +2934,7 @@
         <v>83</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>88</v>
@@ -2850,7 +2958,7 @@
         <v>83</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>93</v>
@@ -2874,7 +2982,7 @@
         <v>83</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>89</v>
@@ -2898,7 +3006,7 @@
         <v>82</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>85</v>
@@ -2944,7 +3052,7 @@
         <v>82</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>95</v>
@@ -3012,7 +3120,7 @@
         <v>82</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>92</v>

--- a/ONCHO/OEM/Sierra Leone/sr_oncho_oem_1_site_202211.xlsx
+++ b/ONCHO/OEM/Sierra Leone/sr_oncho_oem_1_site_202211.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="130">
   <si>
     <t>type</t>
   </si>
@@ -1553,7 +1553,7 @@
   <sheetPr/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1851,12 +1851,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="$A52:$XFD56"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="$A76:$XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -2742,6 +2742,96 @@
       <c r="D69"/>
       <c r="E69" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70">
+        <v>119</v>
+      </c>
+      <c r="C70">
+        <v>119</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71">
+        <v>120</v>
+      </c>
+      <c r="C71">
+        <v>120</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72">
+        <v>121</v>
+      </c>
+      <c r="C72">
+        <v>121</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73">
+        <v>122</v>
+      </c>
+      <c r="C73">
+        <v>122</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>108</v>
+      </c>
+      <c r="B74">
+        <v>123</v>
+      </c>
+      <c r="C74">
+        <v>123</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75">
+        <v>124</v>
+      </c>
+      <c r="C75">
+        <v>124</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
